--- a/hw1/data-demands-deliveyconstraint.xlsx
+++ b/hw1/data-demands-deliveyconstraint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchaitha/Dropbox (MIT)/Chaithanya-MIT/teaching/NUS/Intro-to-optimization-DBA3701/HW/HW1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF396D7-6EF7-F547-889F-A52352FF2C32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{657B0FBD-8203-934D-ABF6-19BA4489C0DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="520" yWindow="960" windowWidth="19840" windowHeight="13920" xr2:uid="{252DA497-44E4-3B42-9A28-52103224E1EC}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -610,7 +610,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C14">
         <v>24</v>
